--- a/_resource/excel/table/R-任务-任务配置-(框架定义,策划填写).xlsx
+++ b/_resource/excel/table/R-任务-任务配置-(框架定义,策划填写).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="2070" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="1" r:id="rId1"/>
@@ -157,61 +157,6 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>条件配置条件ID</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-条件, 不填表示无条件随机
-条件支持 
-大于( &gt; )
-小于( &lt; )
-等于( =,== )
-不等于( != )
-大于等于( &gt;= )
-小于等于( &lt;= )
-条件关系支持
-与(&amp;) 两个条件都需要满足
-或(|) 两个条件满足其一
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G7" authorId="3" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>PCC:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
 条件id数组 
 空表示无条件
 任意一个条件 用|分开 如:1|2|3
@@ -225,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>完成条件</t>
   </si>
@@ -240,9 +185,6 @@
   </si>
   <si>
     <t>完成方式</t>
-  </si>
-  <si>
-    <t>前置条件</t>
   </si>
   <si>
     <t>任务名称</t>
@@ -317,10 +259,6 @@
   </si>
   <si>
     <t>Execute</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PreCondition</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -516,7 +454,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -543,9 +481,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1029,42 +964,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.5" style="17" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.625" style="18" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.25" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.375" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.875" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.375" style="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.125" style="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="18"/>
+    <col min="1" max="1" width="21.5" style="16" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.125" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>0</v>
       </c>
@@ -1080,138 +1014,126 @@
       <c r="E2" s="9">
         <v>3</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="9">
         <v>1</v>
       </c>
       <c r="G2" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" s="9">
         <v>2</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="5">
         <v>2</v>
       </c>
-      <c r="K2" s="5">
+    </row>
+    <row r="3" spans="1:10" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>2</v>
       </c>
+      <c r="C6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
+    <row r="7" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="12" t="s">
+      <c r="B7" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" s="14" t="s">
         <v>9</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="K7" s="15" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
